--- a/biology/Zoologie/Dsungaripterus/Dsungaripterus.xlsx
+++ b/biology/Zoologie/Dsungaripterus/Dsungaripterus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dsungaripterus weii
 Dsungaripterus est un genre éteint de ptérosaures de la famille des dsungariptéridés ayant vécu à la fin du Crétacé inférieur (Aptien et Albien) il y a environ entre −125 et −100 Ma (millions d'années).
-La seule espèce connue, Dsungaripterus weii, a été découverte en Chine dans la formation géologique de Lianmuqin dans le bassin de Dzoungarie dans le nord de la région autonome du Xinjiang, et décrite en 1973 par le célèbre paléontologue chinois Yang Zhongjian[1], connu aussi sous le nom de C. C. Young.
+La seule espèce connue, Dsungaripterus weii, a été découverte en Chine dans la formation géologique de Lianmuqin dans le bassin de Dzoungarie dans le nord de la région autonome du Xinjiang, et décrite en 1973 par le célèbre paléontologue chinois Yang Zhongjian, connu aussi sous le nom de C. C. Young.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son envergure était de 3 mètres. Dsungaripterus possédait une crête osseuse insolite le long de son bec et des mâchoires courbées vers le haut avec un bec pointu. On pense que sa crête pouvait servir de gouvernail pendant le vol, ou peut-être, à la séduction du sexe opposé lors de la saison des amours.
 Il avait des dents plates à l’arrière de sa mâchoire, bien développées et espacées, probablement pour écraser les coquilles de ses proies.
@@ -545,9 +559,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cladogramme simplifié de l'analyse phylogénétique réalisée par Andres, Clark et Xu en 2014 montrant la position de Dsungaripterus au sein des Dsungaripteromorpha[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladogramme simplifié de l'analyse phylogénétique réalisée par Andres, Clark et Xu en 2014 montrant la position de Dsungaripterus au sein des Dsungaripteromorpha :
 </t>
         </is>
       </c>
